--- a/catalogusdata/matrix functionaliteit kenniskluis.xlsx
+++ b/catalogusdata/matrix functionaliteit kenniskluis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="49">
   <si>
     <t>Concepten</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>datasets</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -252,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -532,12 +542,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,6 +556,9 @@
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -602,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -682,11 +695,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
@@ -724,10 +741,14 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -735,14 +756,14 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
@@ -752,11 +773,15 @@
         <v>3</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>44</v>
       </c>
@@ -794,10 +819,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -805,14 +834,14 @@
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
@@ -822,11 +851,15 @@
         <v>4</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
@@ -864,10 +897,14 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
@@ -875,14 +912,14 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
@@ -892,11 +929,15 @@
         <v>5</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
@@ -934,10 +975,14 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -945,14 +990,14 @@
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
@@ -962,11 +1007,15 @@
         <v>6</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1004,10 +1053,14 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
@@ -1015,14 +1068,14 @@
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
@@ -1032,11 +1085,15 @@
         <v>7</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1074,10 +1131,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -1085,14 +1146,14 @@
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
@@ -1195,29 +1256,33 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1229,10 +1294,10 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E40" s="2"/>
@@ -1246,10 +1311,10 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="2"/>
@@ -1263,10 +1328,10 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="2"/>
@@ -1278,12 +1343,14 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1293,14 +1360,12 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1312,7 +1377,7 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
@@ -1327,12 +1392,14 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="2"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1342,36 +1409,24 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -1398,7 +1453,7 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
@@ -1425,7 +1480,7 @@
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
@@ -1451,8 +1506,8 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
-        <v>24</v>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
@@ -1479,7 +1534,7 @@
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
@@ -1504,25 +1559,37 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1536,26 +1603,22 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
@@ -1572,21 +1635,40 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K57" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalogusdata/matrix functionaliteit kenniskluis.xlsx
+++ b/catalogusdata/matrix functionaliteit kenniskluis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="56">
   <si>
     <t>Concepten</t>
   </si>
@@ -171,6 +171,27 @@
   </si>
   <si>
     <t>datasets</t>
+  </si>
+  <si>
+    <t>Begrippen BAG</t>
+  </si>
+  <si>
+    <t>Begrippen BRK</t>
+  </si>
+  <si>
+    <t>Begrippen intern BRT (niet-juridisch)</t>
+  </si>
+  <si>
+    <t>Begrippen intern BRT (juridisch)</t>
+  </si>
+  <si>
+    <t>Begrippen BRT</t>
+  </si>
+  <si>
+    <t>Begrippen TAX</t>
+  </si>
+  <si>
+    <t>getest in datasets/Begrippen BAG</t>
   </si>
 </sst>
 </file>
@@ -542,22 +563,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="8.88671875" style="5"/>
   </cols>
@@ -615,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1238,7 +1259,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -1246,7 +1269,9 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1267,122 +1292,134 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="8" t="s">
-        <v>43</v>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="8" t="s">
-        <v>43</v>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="8" t="s">
-        <v>43</v>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="8" t="s">
-        <v>43</v>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1392,14 +1429,12 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1409,12 +1444,14 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="2"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1426,168 +1463,106 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D48" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D50" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
-        <v>24</v>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
-        <v>25</v>
+      <c r="B53" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1602,73 +1577,250 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
-        <v>27</v>
+      <c r="B55" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="K55" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
-        <v>28</v>
+      <c r="B56" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
-        <v>29</v>
+      <c r="B57" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K58" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/catalogusdata/matrix functionaliteit kenniskluis.xlsx
+++ b/catalogusdata/matrix functionaliteit kenniskluis.xlsx
@@ -566,9 +566,9 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,7 +1588,7 @@
         <v>44</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>44</v>
@@ -1615,7 +1615,7 @@
         <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>44</v>
@@ -1642,7 +1642,7 @@
         <v>44</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>44</v>
@@ -1669,7 +1669,7 @@
         <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>44</v>
@@ -1696,7 +1696,7 @@
         <v>44</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>44</v>
@@ -1723,7 +1723,7 @@
         <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>44</v>

--- a/catalogusdata/matrix functionaliteit kenniskluis.xlsx
+++ b/catalogusdata/matrix functionaliteit kenniskluis.xlsx
@@ -566,9 +566,9 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1581,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -1608,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E56" s="2" t="s">

--- a/catalogusdata/matrix functionaliteit kenniskluis.xlsx
+++ b/catalogusdata/matrix functionaliteit kenniskluis.xlsx
@@ -568,7 +568,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E57" s="2" t="s">

--- a/catalogusdata/matrix functionaliteit kenniskluis.xlsx
+++ b/catalogusdata/matrix functionaliteit kenniskluis.xlsx
@@ -566,9 +566,9 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1662,7 +1662,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -1689,7 +1689,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1716,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E60" s="2" t="s">

--- a/catalogusdata/matrix functionaliteit kenniskluis.xlsx
+++ b/catalogusdata/matrix functionaliteit kenniskluis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="57">
   <si>
     <t>Concepten</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>getest in datasets/Begrippen BAG</t>
+  </si>
+  <si>
+    <t>Informatiemodellen</t>
   </si>
 </sst>
 </file>
@@ -563,17 +566,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
@@ -1180,7 +1183,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1188,103 +1191,103 @@
         <v>43</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="8" t="s">
         <v>43</v>
@@ -1293,47 +1296,45 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>55</v>
+      <c r="H40" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1343,7 +1344,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>55</v>
@@ -1362,7 +1363,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>55</v>
@@ -1381,7 +1382,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>55</v>
@@ -1400,7 +1401,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>55</v>
@@ -1418,20 +1419,24 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1444,14 +1449,12 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1463,7 +1466,7 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="8" t="s">
@@ -1480,7 +1483,7 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="8" t="s">
@@ -1497,7 +1500,7 @@
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="8" t="s">
@@ -1512,12 +1515,14 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="2"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -1527,14 +1532,12 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -1546,7 +1549,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="8" t="s">
@@ -1561,12 +1564,14 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="2"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -1576,36 +1581,24 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="8" t="s">
@@ -1632,7 +1625,7 @@
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="8" t="s">
@@ -1659,7 +1652,7 @@
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="8" t="s">
@@ -1685,8 +1678,8 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="3" t="s">
-        <v>24</v>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="8" t="s">
@@ -1713,7 +1706,7 @@
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="8" t="s">
@@ -1738,25 +1731,37 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1770,26 +1775,22 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -1806,21 +1807,40 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K65" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
